--- a/Recapitulatif.xlsx
+++ b/Recapitulatif.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Recapitulatif des comptes</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Maurice la salope</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>Banque du plat pays</t>
@@ -181,11 +184,11 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
-        <v>12.0</v>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -193,13 +196,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12.0</v>
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -207,13 +210,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.0</v>
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -221,13 +224,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12.0</v>
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -235,13 +238,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12.0</v>
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Recapitulatif.xlsx
+++ b/Recapitulatif.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Recapitulatif des comptes</t>
   </si>
@@ -20,7 +20,10 @@
     <t>Gestionnaire</t>
   </si>
   <si>
-    <t>Client</t>
+    <t>Client Prenom</t>
+  </si>
+  <si>
+    <t>Client Nom</t>
   </si>
   <si>
     <t>Compte</t>
@@ -35,7 +38,10 @@
     <t>MV</t>
   </si>
   <si>
-    <t>Maurice la salope</t>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>la salope</t>
   </si>
   <si>
     <t>12</t>
@@ -44,16 +50,28 @@
     <t>Banque du plat pays</t>
   </si>
   <si>
-    <t>Paul le pleutre</t>
-  </si>
-  <si>
-    <t>GeGe l'enc..</t>
-  </si>
-  <si>
-    <t>En avant Marcelle</t>
-  </si>
-  <si>
-    <t>Jacki kéké</t>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>lepleutre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeGe </t>
+  </si>
+  <si>
+    <t>l'enc</t>
+  </si>
+  <si>
+    <t>Marcelle</t>
+  </si>
+  <si>
+    <t>lapucelle</t>
+  </si>
+  <si>
+    <t>Jacki</t>
+  </si>
+  <si>
+    <t>kéké</t>
   </si>
 </sst>
 </file>
@@ -153,6 +171,7 @@
     <col min="3" max="3" customWidth="true" width="20.0" collapsed="false"/>
     <col min="4" max="4" customWidth="true" width="20.0" collapsed="false"/>
     <col min="5" max="5" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -176,75 +195,93 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
